--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202111\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202111\source\repos\Demo_Podgotovka_Mukachev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC91F8D9-7CB1-416E-B1BE-C6E8E07A5689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C4B4C-CE3F-4B60-B80F-24E3E1E10DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaterialType" sheetId="3" r:id="rId1"/>
@@ -33,30 +33,30 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Запрос — Material" description="Соединение с запросом &quot;Material&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Запрос — Material" description="Соединение с запросом &quot;Material&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Material;Extended Properties=&quot;&quot;" command="SELECT * FROM [Material]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Запрос — MaterialType" description="Соединение с запросом &quot;MaterialType&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Запрос — MaterialType" description="Соединение с запросом &quot;MaterialType&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=MaterialType;Extended Properties=&quot;&quot;" command="SELECT * FROM [MaterialType]"/>
   </connection>
-  <connection id="3" keepAlive="1" name="Запрос — Product" description="Соединение с запросом &quot;Product&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Запрос — Product" description="Соединение с запросом &quot;Product&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Product;Extended Properties=&quot;&quot;" command="SELECT * FROM [Product]"/>
   </connection>
-  <connection id="4" keepAlive="1" name="Запрос — ProductMaterial" description="Соединение с запросом &quot;ProductMaterial&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Запрос — ProductMaterial" description="Соединение с запросом &quot;ProductMaterial&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ProductMaterial;Extended Properties=&quot;&quot;" command="SELECT * FROM [ProductMaterial]"/>
   </connection>
-  <connection id="5" keepAlive="1" name="Запрос — ProductType" description="Соединение с запросом &quot;ProductType&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" xr16:uid="{00000000-0015-0000-FFFF-FFFF04000000}" keepAlive="1" name="Запрос — ProductType" description="Соединение с запросом &quot;ProductType&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ProductType;Extended Properties=&quot;&quot;" command="SELECT * FROM [ProductType]"/>
   </connection>
-  <connection id="6" keepAlive="1" name="Запрос — UnitOfMeasurement" description="Соединение с запросом &quot;UnitOfMeasurement&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" xr16:uid="{00000000-0015-0000-FFFF-FFFF05000000}" keepAlive="1" name="Запрос — UnitOfMeasurement" description="Соединение с запросом &quot;UnitOfMeasurement&quot; в книге." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=UnitOfMeasurement;Extended Properties=&quot;&quot;" command="SELECT * FROM [UnitOfMeasurement]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="342">
   <si>
     <t>Колесо R18 Кованый</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>ProductTypeID</t>
-  </si>
-  <si>
-    <t>ArticleNumber</t>
   </si>
   <si>
     <t>Image</t>
@@ -1090,7 +1087,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1670,7 +1667,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="2">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -1684,7 +1681,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_5" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_5" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="8">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -1701,7 +1698,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_4" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="6" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -1712,7 +1709,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="5" xr16:uid="{00000000-0016-0000-0300-000003000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -1724,7 +1721,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="4" xr16:uid="{00000000-0016-0000-0400-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="ProductID" tableColumnId="1"/>
@@ -1736,7 +1733,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{00000000-0016-0000-0500-000005000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="ID" tableColumnId="1"/>
@@ -1752,79 +1749,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="MaterialType" displayName="MaterialType" ref="A1:B3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MaterialType" displayName="MaterialType" ref="A1:B3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Material" displayName="Material" ref="A1:H51" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Material" displayName="Material" ref="A1:H51" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" uniqueName="3" name="CountInPack" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="Unit" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="CountInStock" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="MinCount" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="Cost" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="MaterialTypeID" queryTableFieldId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="CountInPack" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Unit" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="CountInStock" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="MinCount" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Cost" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="MaterialTypeID" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="UnitOfMeasurement" displayName="UnitOfMeasurement" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="UnitOfMeasurement" displayName="UnitOfMeasurement" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ProductType" displayName="ProductType" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="ProductType" displayName="ProductType" ref="A1:C5" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" uniqueName="3" name="DefectedPercent" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" uniqueName="3" name="DefectedPercent" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="ProductMaterial" displayName="ProductMaterial" ref="A1:C101" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="ProductMaterial" displayName="ProductMaterial" ref="A1:C101" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="ProductID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="MaterialID" queryTableFieldId="2"/>
-    <tableColumn id="3" uniqueName="3" name="Count" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="ProductID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="MaterialID" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="Count" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Product" displayName="Product" ref="A1:G101" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Product" displayName="Product" ref="A1:G101" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="ID" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="ProductTypeID" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="ArticleNumber" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" uniqueName="5" name="Image" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" uniqueName="6" name="ProductionPersonCount" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="ProductionWorkshopNumber" queryTableFieldId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" uniqueName="1" name="ID" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" uniqueName="2" name="Title" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" uniqueName="3" name="ProductTypeID" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" uniqueName="4" name="Cost" queryTableFieldId="4" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" uniqueName="5" name="Image" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" uniqueName="6" name="ProductionPersonCount" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" uniqueName="7" name="ProductionWorkshopNumber" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2126,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2153,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2161,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2173,10 +2170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2198,22 +2195,22 @@
         <v>167</v>
       </c>
       <c r="C1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
         <v>287</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>288</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>289</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>290</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>291</v>
-      </c>
-      <c r="H1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2247,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2273,7 +2270,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2299,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -2325,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2351,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2377,7 +2374,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2403,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2429,7 +2426,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2455,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2481,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2507,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -2533,7 +2530,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2559,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2585,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2611,7 +2608,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -2637,7 +2634,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -2663,7 +2660,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2689,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2715,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2741,7 +2738,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2767,7 +2764,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2793,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2819,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2845,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -2871,7 +2868,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2897,7 +2894,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -2923,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2949,7 +2946,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2975,7 +2972,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -3001,7 +2998,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -3027,7 +3024,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -3053,7 +3050,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -3079,7 +3076,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -3105,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -3131,7 +3128,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -3157,7 +3154,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -3183,7 +3180,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -3209,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -3235,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3261,7 +3258,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -3287,7 +3284,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -3313,7 +3310,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3339,7 +3336,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -3365,7 +3362,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -3391,7 +3388,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3417,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -3443,7 +3440,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -3469,7 +3466,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3495,7 +3492,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3525,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3549,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3573,7 +3570,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3585,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3605,7 +3602,7 @@
         <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3613,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,7 +3634,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3649,7 +3646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3663,13 +3660,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s">
         <v>276</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>277</v>
-      </c>
-      <c r="C1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4781,11 +4778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4810,16 +4807,16 @@
         <v>168</v>
       </c>
       <c r="D1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" t="s">
         <v>169</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>170</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4833,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>153</v>
@@ -4856,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>128</v>
@@ -4879,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -4902,7 +4899,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -4925,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -4948,7 +4945,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -4971,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>70</v>
@@ -4994,7 +4991,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -5017,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -5040,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -5063,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -5086,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>141</v>
@@ -5109,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -5132,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -5155,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>23</v>
@@ -5178,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>73</v>
@@ -5201,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>101</v>
@@ -5224,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>143</v>
@@ -5247,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
@@ -5270,7 +5267,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>88</v>
@@ -5293,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>23</v>
@@ -5316,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
@@ -5339,7 +5336,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>66</v>
@@ -5362,7 +5359,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -5385,7 +5382,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>139</v>
@@ -5408,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>149</v>
@@ -5431,7 +5428,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>80</v>
@@ -5454,7 +5451,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
@@ -5477,7 +5474,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>161</v>
@@ -5500,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>36</v>
@@ -5523,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>86</v>
@@ -5546,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>23</v>
@@ -5569,7 +5566,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>47</v>
@@ -5592,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>137</v>
@@ -5615,7 +5612,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>23</v>
@@ -5638,7 +5635,7 @@
         <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>51</v>
@@ -5661,7 +5658,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
@@ -5684,7 +5681,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>23</v>
@@ -5707,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>165</v>
@@ -5730,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>3</v>
@@ -5753,7 +5750,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>60</v>
@@ -5776,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>55</v>
@@ -5799,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
@@ -5822,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>44</v>
@@ -5845,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>126</v>
@@ -5868,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>120</v>
@@ -5891,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>11</v>
@@ -5914,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>151</v>
@@ -5937,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>145</v>
@@ -5960,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>23</v>
@@ -5983,7 +5980,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>23</v>
@@ -6006,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>82</v>
@@ -6029,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>156</v>
@@ -6052,7 +6049,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>23</v>
@@ -6075,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>23</v>
@@ -6098,7 +6095,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>23</v>
@@ -6121,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>23</v>
@@ -6144,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>19</v>
@@ -6167,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>21</v>
@@ -6190,7 +6187,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>124</v>
@@ -6213,7 +6210,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>75</v>
@@ -6236,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>23</v>
@@ -6259,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>23</v>
@@ -6282,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>98</v>
@@ -6305,7 +6302,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
@@ -6328,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>23</v>
@@ -6351,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>23</v>
@@ -6374,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>109</v>
@@ -6397,7 +6394,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>62</v>
@@ -6420,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>49</v>
@@ -6443,7 +6440,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>113</v>
@@ -6466,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>68</v>
@@ -6489,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>163</v>
@@ -6512,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
@@ -6535,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>57</v>
@@ -6558,7 +6555,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>133</v>
@@ -6581,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>90</v>
@@ -6604,7 +6601,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>53</v>
@@ -6627,7 +6624,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>29</v>
@@ -6650,7 +6647,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>107</v>
@@ -6673,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>17</v>
@@ -6696,7 +6693,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>23</v>
@@ -6719,7 +6716,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>23</v>
@@ -6742,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>23</v>
@@ -6765,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>23</v>
@@ -6788,7 +6785,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>23</v>
@@ -6811,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>115</v>
@@ -6834,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>23</v>
@@ -6857,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>23</v>
@@ -6880,7 +6877,7 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>23</v>
@@ -6903,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
@@ -6926,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>135</v>
@@ -6949,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>23</v>
@@ -6972,7 +6969,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>23</v>
@@ -6995,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>118</v>
@@ -7018,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>25</v>
@@ -7041,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>38</v>
@@ -7064,7 +7061,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>15</v>
@@ -7087,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>77</v>
@@ -7110,7 +7107,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>96</v>
